--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Serping1-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Serping1-Sele.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.82164133333333</v>
+        <v>21.137664</v>
       </c>
       <c r="H2">
-        <v>89.464924</v>
+        <v>63.412992</v>
       </c>
       <c r="I2">
-        <v>0.02335016309719764</v>
+        <v>0.01636081711441431</v>
       </c>
       <c r="J2">
-        <v>0.02335016309719764</v>
+        <v>0.01636081711441431</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N2">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O2">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P2">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q2">
-        <v>140.1470022569422</v>
+        <v>268.008613021696</v>
       </c>
       <c r="R2">
-        <v>1261.32302031248</v>
+        <v>2412.077517195264</v>
       </c>
       <c r="S2">
-        <v>0.02255741395991507</v>
+        <v>0.01615044342267371</v>
       </c>
       <c r="T2">
-        <v>0.02255741395991508</v>
+        <v>0.01615044342267372</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.82164133333333</v>
+        <v>21.137664</v>
       </c>
       <c r="H3">
-        <v>89.464924</v>
+        <v>63.412992</v>
       </c>
       <c r="I3">
-        <v>0.02335016309719764</v>
+        <v>0.01636081711441431</v>
       </c>
       <c r="J3">
-        <v>0.02335016309719764</v>
+        <v>0.01636081711441431</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N3">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O3">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P3">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q3">
-        <v>4.925272698783555</v>
+        <v>3.491047265024001</v>
       </c>
       <c r="R3">
-        <v>44.32745428905199</v>
+        <v>31.419425385216</v>
       </c>
       <c r="S3">
-        <v>0.0007927491372825657</v>
+        <v>0.0002103736917405921</v>
       </c>
       <c r="T3">
-        <v>0.0007927491372825658</v>
+        <v>0.0002103736917405921</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>3480.380189</v>
       </c>
       <c r="I4">
-        <v>0.9083721465342726</v>
+        <v>0.8979526429041496</v>
       </c>
       <c r="J4">
-        <v>0.9083721465342726</v>
+        <v>0.8979526429041496</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N4">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O4">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P4">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q4">
-        <v>5452.023300246698</v>
+        <v>14709.47573711832</v>
       </c>
       <c r="R4">
-        <v>49068.20970222028</v>
+        <v>132385.2816340649</v>
       </c>
       <c r="S4">
-        <v>0.8775324803401217</v>
+        <v>0.8864064217603695</v>
       </c>
       <c r="T4">
-        <v>0.8775324803401215</v>
+        <v>0.8864064217603697</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>3480.380189</v>
       </c>
       <c r="I5">
-        <v>0.9083721465342726</v>
+        <v>0.8979526429041496</v>
       </c>
       <c r="J5">
-        <v>0.9083721465342726</v>
+        <v>0.8979526429041496</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,16 +741,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N5">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O5">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P5">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q5">
         <v>191.6038237093774</v>
@@ -759,10 +759,10 @@
         <v>1724.434413384397</v>
       </c>
       <c r="S5">
-        <v>0.03083966619415094</v>
+        <v>0.01154622114377996</v>
       </c>
       <c r="T5">
-        <v>0.03083966619415094</v>
+        <v>0.01154622114377996</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>86.94000199999999</v>
+        <v>109.7535913333333</v>
       </c>
       <c r="H6">
-        <v>260.820006</v>
+        <v>329.260774</v>
       </c>
       <c r="I6">
-        <v>0.06807349078072281</v>
+        <v>0.08495065658413503</v>
       </c>
       <c r="J6">
-        <v>0.06807349078072282</v>
+        <v>0.08495065658413503</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N6">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O6">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P6">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q6">
-        <v>408.5751189990133</v>
+        <v>1391.587442557357</v>
       </c>
       <c r="R6">
-        <v>3677.17607099112</v>
+        <v>12524.28698301621</v>
       </c>
       <c r="S6">
-        <v>0.06576236340813896</v>
+        <v>0.08385832830270423</v>
       </c>
       <c r="T6">
-        <v>0.06576236340813897</v>
+        <v>0.08385832830270425</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>86.94000199999999</v>
+        <v>109.7535913333333</v>
       </c>
       <c r="H7">
-        <v>260.820006</v>
+        <v>329.260774</v>
       </c>
       <c r="I7">
-        <v>0.06807349078072281</v>
+        <v>0.08495065658413503</v>
       </c>
       <c r="J7">
-        <v>0.06807349078072282</v>
+        <v>0.08495065658413503</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N7">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O7">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P7">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q7">
-        <v>14.35880787031533</v>
+        <v>18.12664705290022</v>
       </c>
       <c r="R7">
-        <v>129.229270832838</v>
+        <v>163.139823476102</v>
       </c>
       <c r="S7">
-        <v>0.002311127372583848</v>
+        <v>0.001092328281430795</v>
       </c>
       <c r="T7">
-        <v>0.002311127372583848</v>
+        <v>0.001092328281430795</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2607933333333334</v>
+        <v>0.9507383333333334</v>
       </c>
       <c r="H8">
-        <v>0.7823800000000001</v>
+        <v>2.852215</v>
       </c>
       <c r="I8">
-        <v>0.0002041995878070102</v>
+        <v>0.0007358833973011272</v>
       </c>
       <c r="J8">
-        <v>0.0002041995878070102</v>
+        <v>0.0007358833973011273</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N8">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O8">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P8">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q8">
-        <v>1.225600008622223</v>
+        <v>12.05459894069778</v>
       </c>
       <c r="R8">
-        <v>11.0304000776</v>
+        <v>108.49139046628</v>
       </c>
       <c r="S8">
-        <v>0.0001972669147291553</v>
+        <v>0.0007264211249770599</v>
       </c>
       <c r="T8">
-        <v>0.0001972669147291553</v>
+        <v>0.0007264211249770603</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2607933333333334</v>
+        <v>0.9507383333333334</v>
       </c>
       <c r="H9">
-        <v>0.7823800000000001</v>
+        <v>2.852215</v>
       </c>
       <c r="I9">
-        <v>0.0002041995878070102</v>
+        <v>0.0007358833973011272</v>
       </c>
       <c r="J9">
-        <v>0.0002041995878070102</v>
+        <v>0.0007358833973011273</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N9">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O9">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P9">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q9">
-        <v>0.04307201841555556</v>
+        <v>0.1570217247438889</v>
       </c>
       <c r="R9">
-        <v>0.38764816574</v>
+        <v>1.413195522695</v>
       </c>
       <c r="S9">
-        <v>6.932673077854891E-06</v>
+        <v>9.462272324067171E-06</v>
       </c>
       <c r="T9">
-        <v>6.932673077854891E-06</v>
+        <v>9.462272324067173E-06</v>
       </c>
     </row>
   </sheetData>
